--- a/Projektplanung/Zeiterfassung/Zeiterfassung.xlsx
+++ b/Projektplanung/Zeiterfassung/Zeiterfassung.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="40" documentId="8_{425BA1E2-2519-4666-9D4E-6BEA8B432A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D666BFA-F07F-4575-BC2A-2505C3BE0355}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="17856" windowHeight="12456" xr2:uid="{61F42806-CE5B-4096-9B02-5237997943CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{61F42806-CE5B-4096-9B02-5237997943CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -194,6 +194,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,7 +466,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
